--- a/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
+++ b/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b11507c57360364/Escritorio/INVENTARIOS/INVENTARIOS DEPOSITO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1413CC-56FE-47FB-81E4-43F8CCF14685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D1413CC-56FE-47FB-81E4-43F8CCF14685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5F87F6-CF0C-4FF7-85E1-6AED2AA714AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A05D6B40-5DBD-4714-B826-E0ADCA9F6257}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A05D6B40-5DBD-4714-B826-E0ADCA9F6257}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="124">
   <si>
     <t>GENERAL</t>
   </si>
@@ -232,6 +232,171 @@
   </si>
   <si>
     <t>SHADOW</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>NB36MID-10000</t>
+  </si>
+  <si>
+    <t>NB37MID-10001</t>
+  </si>
+  <si>
+    <t>NB38MID-10001</t>
+  </si>
+  <si>
+    <t>NB39MID-10001</t>
+  </si>
+  <si>
+    <t>NB40MID-10001</t>
+  </si>
+  <si>
+    <t>NB41MID-10001</t>
+  </si>
+  <si>
+    <t>NB42MID-10001</t>
+  </si>
+  <si>
+    <t>NB43MID-10001</t>
+  </si>
+  <si>
+    <t>NB44MID-10001</t>
+  </si>
+  <si>
+    <t>NB45MID-10001</t>
+  </si>
+  <si>
+    <t>NBN36MID-20002</t>
+  </si>
+  <si>
+    <t>NBN37MID-20002</t>
+  </si>
+  <si>
+    <t>NBN38MID-20002</t>
+  </si>
+  <si>
+    <t>NBN39MID-20002</t>
+  </si>
+  <si>
+    <t>NBN40MID-20002</t>
+  </si>
+  <si>
+    <t>NBN41MID-20002</t>
+  </si>
+  <si>
+    <t>NBN42MID-20002</t>
+  </si>
+  <si>
+    <t>NBN43MID-20002</t>
+  </si>
+  <si>
+    <t>NBN44MID-20002</t>
+  </si>
+  <si>
+    <t>NBN45MID-20002</t>
+  </si>
+  <si>
+    <t>BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>ZAPATO BLAZER MID BLANCO</t>
+  </si>
+  <si>
+    <t>ZAPATO BLAZER MID BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>NBNV36MID-30003</t>
+  </si>
+  <si>
+    <t>NBNV37MID-30003</t>
+  </si>
+  <si>
+    <t>NBNV38MID-30003</t>
+  </si>
+  <si>
+    <t>NBNV39MID-30003</t>
+  </si>
+  <si>
+    <t>NBNV40MID-30003</t>
+  </si>
+  <si>
+    <t>ZAPATO BLAZER MID BLANCO NEGRO VERDE</t>
+  </si>
+  <si>
+    <t>BLANCO NEGRO VERDE</t>
+  </si>
+  <si>
+    <t>BOTIN BLAZER BLOW BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>NBN36BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN37BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN38BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN39BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN40BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN41BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN42BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN43BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN44BLOW-10001</t>
+  </si>
+  <si>
+    <t>NBN45BLOW-10001</t>
+  </si>
+  <si>
+    <t>BLOW</t>
+  </si>
+  <si>
+    <t>NBN36LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN37LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN38LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN39LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN40LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN41LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN42LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN43LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN44LOW-10001</t>
+  </si>
+  <si>
+    <t>NBN45LOW-10001</t>
+  </si>
+  <si>
+    <t>ZAPATO BLAZER LOW BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>LOW</t>
   </si>
 </sst>
 </file>
@@ -310,7 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -327,7 +492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,19 +788,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500929E3-3C81-4DBE-9C93-C828B8C3764B}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1875,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1934,7 +2101,7 @@
         <v>67</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2074,6 +2241,2556 @@
       </c>
       <c r="Z24" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>50</v>
+      </c>
+      <c r="V25" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>25998807</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>25998807</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>25998807</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>50</v>
+      </c>
+      <c r="V28" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>25998807</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>50</v>
+      </c>
+      <c r="V29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>25998807</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>50</v>
+      </c>
+      <c r="V30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>25998807</v>
+      </c>
+      <c r="Y30">
+        <v>5</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>25998807</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>50</v>
+      </c>
+      <c r="V32" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>25998807</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>50</v>
+      </c>
+      <c r="V33" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>25998807</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>50</v>
+      </c>
+      <c r="V34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>25998807</v>
+      </c>
+      <c r="Y34">
+        <v>5</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>36</v>
+      </c>
+      <c r="K35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>50</v>
+      </c>
+      <c r="V35" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35">
+        <v>25998807</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>50</v>
+      </c>
+      <c r="V36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36">
+        <v>25998807</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>50</v>
+      </c>
+      <c r="V37" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37">
+        <v>25998807</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <v>39</v>
+      </c>
+      <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>50</v>
+      </c>
+      <c r="V38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38">
+        <v>25998807</v>
+      </c>
+      <c r="Y38">
+        <v>5</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>50</v>
+      </c>
+      <c r="V39" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39">
+        <v>25998807</v>
+      </c>
+      <c r="Y39">
+        <v>5</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40">
+        <v>41</v>
+      </c>
+      <c r="K40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>50</v>
+      </c>
+      <c r="V40" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40">
+        <v>25998807</v>
+      </c>
+      <c r="Y40">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>50</v>
+      </c>
+      <c r="V41" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41">
+        <v>25998807</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>50</v>
+      </c>
+      <c r="V42" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42">
+        <v>25998807</v>
+      </c>
+      <c r="Y42">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="K43" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>50</v>
+      </c>
+      <c r="V43" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43">
+        <v>25998807</v>
+      </c>
+      <c r="Y43">
+        <v>5</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>50</v>
+      </c>
+      <c r="V44" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44">
+        <v>25998807</v>
+      </c>
+      <c r="Y44">
+        <v>5</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45">
+        <v>36</v>
+      </c>
+      <c r="K45" t="s">
+        <v>67</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>50</v>
+      </c>
+      <c r="V45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45">
+        <v>25998807</v>
+      </c>
+      <c r="Y45">
+        <v>5</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>37</v>
+      </c>
+      <c r="K46" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>50</v>
+      </c>
+      <c r="V46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46">
+        <v>25998807</v>
+      </c>
+      <c r="Y46">
+        <v>5</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>50</v>
+      </c>
+      <c r="V47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47">
+        <v>25998807</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48">
+        <v>39</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>50</v>
+      </c>
+      <c r="V48" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48">
+        <v>25998807</v>
+      </c>
+      <c r="Y48">
+        <v>5</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>50</v>
+      </c>
+      <c r="V49" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49">
+        <v>25998807</v>
+      </c>
+      <c r="Y49">
+        <v>5</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <v>36</v>
+      </c>
+      <c r="K50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>50</v>
+      </c>
+      <c r="V50" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50">
+        <v>25998807</v>
+      </c>
+      <c r="Y50">
+        <v>5</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>50</v>
+      </c>
+      <c r="V51" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51">
+        <v>25998807</v>
+      </c>
+      <c r="Y51">
+        <v>5</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52">
+        <v>38</v>
+      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>50</v>
+      </c>
+      <c r="V52" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52">
+        <v>25998807</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53">
+        <v>39</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>50</v>
+      </c>
+      <c r="V53" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53">
+        <v>25998807</v>
+      </c>
+      <c r="Y53">
+        <v>5</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>50</v>
+      </c>
+      <c r="V54" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54">
+        <v>25998807</v>
+      </c>
+      <c r="Y54">
+        <v>5</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>50</v>
+      </c>
+      <c r="V55" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55">
+        <v>25998807</v>
+      </c>
+      <c r="Y55">
+        <v>5</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>50</v>
+      </c>
+      <c r="V56" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56">
+        <v>25998807</v>
+      </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <v>43</v>
+      </c>
+      <c r="K57" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>50</v>
+      </c>
+      <c r="V57" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57">
+        <v>25998807</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58">
+        <v>44</v>
+      </c>
+      <c r="K58" t="s">
+        <v>67</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>50</v>
+      </c>
+      <c r="V58" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58">
+        <v>25998807</v>
+      </c>
+      <c r="Y58">
+        <v>5</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59">
+        <v>45</v>
+      </c>
+      <c r="K59" t="s">
+        <v>67</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>50</v>
+      </c>
+      <c r="V59" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59">
+        <v>25998807</v>
+      </c>
+      <c r="Y59">
+        <v>5</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>67</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>50</v>
+      </c>
+      <c r="V60" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60">
+        <v>25998807</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>50</v>
+      </c>
+      <c r="V61" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61">
+        <v>25998807</v>
+      </c>
+      <c r="Y61">
+        <v>5</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>50</v>
+      </c>
+      <c r="V62" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62">
+        <v>25998807</v>
+      </c>
+      <c r="Y62">
+        <v>5</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63">
+        <v>39</v>
+      </c>
+      <c r="K63" t="s">
+        <v>67</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>50</v>
+      </c>
+      <c r="V63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63">
+        <v>25998807</v>
+      </c>
+      <c r="Y63">
+        <v>5</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
+        <v>67</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>50</v>
+      </c>
+      <c r="V64" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64">
+        <v>25998807</v>
+      </c>
+      <c r="Y64">
+        <v>5</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65">
+        <v>41</v>
+      </c>
+      <c r="K65" t="s">
+        <v>67</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>50</v>
+      </c>
+      <c r="V65" t="s">
+        <v>40</v>
+      </c>
+      <c r="X65">
+        <v>25998807</v>
+      </c>
+      <c r="Y65">
+        <v>5</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J66">
+        <v>42</v>
+      </c>
+      <c r="K66" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>50</v>
+      </c>
+      <c r="V66" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66">
+        <v>25998807</v>
+      </c>
+      <c r="Y66">
+        <v>5</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67">
+        <v>43</v>
+      </c>
+      <c r="K67" t="s">
+        <v>67</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>50</v>
+      </c>
+      <c r="V67" t="s">
+        <v>40</v>
+      </c>
+      <c r="X67">
+        <v>25998807</v>
+      </c>
+      <c r="Y67">
+        <v>5</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+      <c r="J68">
+        <v>44</v>
+      </c>
+      <c r="K68" t="s">
+        <v>67</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>50</v>
+      </c>
+      <c r="V68" t="s">
+        <v>40</v>
+      </c>
+      <c r="X68">
+        <v>25998807</v>
+      </c>
+      <c r="Y68">
+        <v>5</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s">
+        <v>67</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>50</v>
+      </c>
+      <c r="V69" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69">
+        <v>25998807</v>
+      </c>
+      <c r="Y69">
+        <v>5</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
+++ b/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
@@ -597,16 +597,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA68" activeCellId="0" sqref="AA68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.28"/>
@@ -2584,7 +2584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>81</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>82</v>
       </c>
@@ -2689,6 +2689,9 @@
       <c r="V35" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W35" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X35" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>85</v>
       </c>
@@ -2745,6 +2748,9 @@
       <c r="V36" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W36" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X36" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>86</v>
       </c>
@@ -2801,6 +2807,9 @@
       <c r="V37" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W37" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X37" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2811,7 +2820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>87</v>
       </c>
@@ -2857,6 +2866,9 @@
       <c r="V38" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X38" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>88</v>
       </c>
@@ -2913,6 +2925,9 @@
       <c r="V39" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W39" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X39" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2923,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>89</v>
       </c>
@@ -2969,6 +2984,9 @@
       <c r="V40" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X40" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -2979,7 +2997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>90</v>
       </c>
@@ -3025,6 +3043,9 @@
       <c r="V41" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W41" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X41" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>91</v>
       </c>
@@ -3081,6 +3102,9 @@
       <c r="V42" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W42" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X42" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3091,7 +3115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>92</v>
       </c>
@@ -3137,6 +3161,9 @@
       <c r="V43" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W43" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X43" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3147,7 +3174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>93</v>
       </c>
@@ -3193,6 +3220,9 @@
       <c r="V44" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X44" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3203,7 +3233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>94</v>
       </c>
@@ -3249,6 +3279,9 @@
       <c r="V45" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X45" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3259,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>97</v>
       </c>
@@ -3305,6 +3338,9 @@
       <c r="V46" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W46" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X46" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3315,7 +3351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>98</v>
       </c>
@@ -3361,6 +3397,9 @@
       <c r="V47" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W47" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X47" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3371,7 +3410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>99</v>
       </c>
@@ -3417,6 +3456,9 @@
       <c r="V48" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W48" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X48" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3427,7 +3469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>100</v>
       </c>
@@ -3473,6 +3515,9 @@
       <c r="V49" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X49" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3483,7 +3528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>101</v>
       </c>
@@ -3529,6 +3574,9 @@
       <c r="V50" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X50" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3539,7 +3587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>104</v>
       </c>
@@ -3585,6 +3633,9 @@
       <c r="V51" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W51" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X51" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3595,7 +3646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>105</v>
       </c>
@@ -3641,6 +3692,9 @@
       <c r="V52" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W52" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X52" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3651,7 +3705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>106</v>
       </c>
@@ -3697,6 +3751,9 @@
       <c r="V53" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X53" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3707,7 +3764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
@@ -3753,6 +3810,9 @@
       <c r="V54" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W54" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X54" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3763,7 +3823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>108</v>
       </c>
@@ -3809,6 +3869,9 @@
       <c r="V55" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W55" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X55" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3819,7 +3882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>109</v>
       </c>
@@ -3865,6 +3928,9 @@
       <c r="V56" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W56" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X56" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3875,7 +3941,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>110</v>
       </c>
@@ -3921,6 +3987,9 @@
       <c r="V57" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W57" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X57" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3931,7 +4000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>111</v>
       </c>
@@ -3977,6 +4046,9 @@
       <c r="V58" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X58" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -3987,7 +4059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>112</v>
       </c>
@@ -4033,6 +4105,9 @@
       <c r="V59" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X59" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4043,7 +4118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>113</v>
       </c>
@@ -4089,6 +4164,9 @@
       <c r="V60" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W60" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X60" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4099,7 +4177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>116</v>
       </c>
@@ -4145,6 +4223,9 @@
       <c r="V61" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W61" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X61" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4155,7 +4236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>117</v>
       </c>
@@ -4201,6 +4282,9 @@
       <c r="V62" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W62" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X62" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4211,7 +4295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>118</v>
       </c>
@@ -4257,6 +4341,9 @@
       <c r="V63" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W63" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X63" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4267,7 +4354,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>119</v>
       </c>
@@ -4313,6 +4400,9 @@
       <c r="V64" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W64" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X64" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4323,7 +4413,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>120</v>
       </c>
@@ -4369,6 +4459,9 @@
       <c r="V65" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X65" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4379,7 +4472,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>121</v>
       </c>
@@ -4425,6 +4518,9 @@
       <c r="V66" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W66" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X66" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4435,7 +4531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>122</v>
       </c>
@@ -4481,6 +4577,9 @@
       <c r="V67" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W67" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X67" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4491,7 +4590,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>123</v>
       </c>
@@ -4537,6 +4636,9 @@
       <c r="V68" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W68" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X68" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4547,7 +4649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>124</v>
       </c>
@@ -4593,6 +4695,9 @@
       <c r="V69" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="W69" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X69" s="0" t="n">
         <v>25998807</v>
       </c>
@@ -4603,6 +4708,13 @@
         <v>115</v>
       </c>
     </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
+++ b/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
@@ -599,11 +599,11 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA68" activeCellId="0" sqref="AA68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O52" activeCellId="0" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.27"/>
@@ -1758,7 +1758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>58</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>64</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>64</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>64</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>1</v>

--- a/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
+++ b/INVENTARIOS DEPOSITO/BAJADA A TIENDA 05-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b11507c57360364/Escritorio/INVENTARIOS/INVENTARIOS DEPOSITO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D1413CC-56FE-47FB-81E4-43F8CCF14685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5F87F6-CF0C-4FF7-85E1-6AED2AA714AF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1D1413CC-56FE-47FB-81E4-43F8CCF14685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C448A070-A9F5-43E1-9B6F-345986F9BB19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A05D6B40-5DBD-4714-B826-E0ADCA9F6257}"/>
   </bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500929E3-3C81-4DBE-9C93-C828B8C3764B}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>67</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>67</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
